--- a/7/2/2/2/2/2/Bancos comerciales y cooperativas 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/2/2/2/2/Bancos comerciales y cooperativas 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Serie</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG74"/>
+  <dimension ref="A1:AG75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8073,7 +8076,7 @@
         <v>105</v>
       </c>
       <c r="B74">
-        <v>224</v>
+        <v>302</v>
       </c>
       <c r="C74">
         <v>-3309</v>
@@ -8085,13 +8088,13 @@
         <v>-919</v>
       </c>
       <c r="F74">
-        <v>769</v>
+        <v>581</v>
       </c>
       <c r="G74">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H74">
-        <v>116</v>
+        <v>-73</v>
       </c>
       <c r="I74">
         <v>-195</v>
@@ -8124,10 +8127,10 @@
         <v>-1</v>
       </c>
       <c r="S74">
-        <v>872</v>
+        <v>1138</v>
       </c>
       <c r="T74">
-        <v>1736</v>
+        <v>1814</v>
       </c>
       <c r="U74">
         <v>-1512</v>
@@ -8167,6 +8170,107 @@
       </c>
       <c r="AG74">
         <v>-131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33">
+      <c r="A75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75">
+        <v>16741</v>
+      </c>
+      <c r="C75">
+        <v>1511</v>
+      </c>
+      <c r="D75">
+        <v>651</v>
+      </c>
+      <c r="E75">
+        <v>859</v>
+      </c>
+      <c r="F75">
+        <v>9979</v>
+      </c>
+      <c r="G75">
+        <v>9040</v>
+      </c>
+      <c r="H75">
+        <v>938</v>
+      </c>
+      <c r="I75">
+        <v>-76</v>
+      </c>
+      <c r="J75">
+        <v>3190</v>
+      </c>
+      <c r="K75">
+        <v>371</v>
+      </c>
+      <c r="L75">
+        <v>2819</v>
+      </c>
+      <c r="M75">
+        <v>-487</v>
+      </c>
+      <c r="N75">
+        <v>-131</v>
+      </c>
+      <c r="O75">
+        <v>-356</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>-8</v>
+      </c>
+      <c r="R75">
+        <v>-8</v>
+      </c>
+      <c r="S75">
+        <v>2632</v>
+      </c>
+      <c r="T75">
+        <v>1341</v>
+      </c>
+      <c r="U75">
+        <v>15400</v>
+      </c>
+      <c r="V75">
+        <v>9016</v>
+      </c>
+      <c r="W75">
+        <v>9139</v>
+      </c>
+      <c r="X75">
+        <v>-123</v>
+      </c>
+      <c r="Y75">
+        <v>-898</v>
+      </c>
+      <c r="Z75">
+        <v>-898</v>
+      </c>
+      <c r="AA75">
+        <v>6428</v>
+      </c>
+      <c r="AB75">
+        <v>7202</v>
+      </c>
+      <c r="AC75">
+        <v>-774</v>
+      </c>
+      <c r="AD75">
+        <v>33</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>33</v>
+      </c>
+      <c r="AG75">
+        <v>821</v>
       </c>
     </row>
   </sheetData>
